--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921810.4840534111</v>
+        <v>916913.2474654639</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371834</v>
+        <v>23767730.23371835</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737302</v>
+        <v>8186089.90773729</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>264.4015911815282</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>213.969302287629</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1457,13 +1457,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>59.00565898536429</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>5.222545353539829</v>
+        <v>143.5993569395239</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1530,22 +1530,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>86.37808034979749</v>
@@ -1581,22 +1581,22 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>76.13411123594088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>29.01728393181318</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>171.8674555085687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.366409319278784</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>109.2767114248548</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>18.95509069175819</v>
       </c>
       <c r="G15" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.1433946664671</v>
@@ -1767,10 +1767,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>86.15360416287113</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>8.009205552644028</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>123.7463514927692</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>75.14600148119017</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>63.09829870417695</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
-        <v>5.222545353539829</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U18" t="n">
         <v>195.3021387078687</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>158.9820417075311</v>
       </c>
       <c r="T19" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
-        <v>10.69246015437423</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
         <v>254.319061736559</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>185.851917047128</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>246.3404985762988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>10.06807673469251</v>
       </c>
       <c r="C21" t="n">
-        <v>3.823194964004982</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -2244,16 +2244,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.2009973742139</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>55.51427558001244</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>341.8057086533932</v>
       </c>
       <c r="E23" t="n">
-        <v>384.1124535143802</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.7276920577103</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
-        <v>93.34669050555452</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
         <v>233.0607131231338</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>152.2614328241043</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>334.5612949905093</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
-        <v>168.5077053983694</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
         <v>279.9179208068699</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>60.26196421790669</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>78.45135488259314</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>151.0614262485834</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>45.60169072681243</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6200590018132</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>273.8697475981283</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>358.5319420553958</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>325.0792909754016</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>126.1391045943609</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>46.79319846835487</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>101.2471700509412</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>352.7952201173273</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>15.86252774276089</v>
+        <v>15.86252774276111</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3426,16 +3426,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>50.42915917981682</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>141.2018885458455</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>196.9174685256142</v>
+        <v>107.8704646485182</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>18.3333647412763</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3021387078687</v>
+        <v>125.4758721186944</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>79.1639689617667</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>92.79775998382522</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>97.16932459051307</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>263.2232857665024</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.94547920291181</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276089</v>
       </c>
       <c r="T42" t="n">
         <v>153.1433946664671</v>
@@ -3903,13 +3903,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>1.153309870410927</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>118.8812785613553</v>
       </c>
       <c r="G43" t="n">
         <v>164.6200590018132</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>97.16932459051314</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>230.9489401015336</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>38.04401443014576</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276089</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>29.11948557459206</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>76.13411123594065</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.8715988771108</v>
+        <v>302.8133048305443</v>
       </c>
       <c r="C11" t="n">
-        <v>251.8715988771108</v>
+        <v>302.8133048305443</v>
       </c>
       <c r="D11" t="n">
-        <v>251.8715988771108</v>
+        <v>302.8133048305443</v>
       </c>
       <c r="E11" t="n">
-        <v>251.8715988771108</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F11" t="n">
-        <v>251.8715988771108</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G11" t="n">
-        <v>251.8715988771108</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446588</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064787</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R11" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V11" t="n">
-        <v>1437.2119706249</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W11" t="n">
-        <v>1053.451669760068</v>
+        <v>1104.393375713502</v>
       </c>
       <c r="X11" t="n">
-        <v>652.8082719290207</v>
+        <v>703.7499778824542</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.8715988771108</v>
+        <v>302.8133048305443</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.5236699643028</v>
+        <v>455.1947750977179</v>
       </c>
       <c r="C12" t="n">
-        <v>547.5285987132485</v>
+        <v>321.1997038466636</v>
       </c>
       <c r="D12" t="n">
-        <v>430.6314409326409</v>
+        <v>204.302546066056</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1386249249689</v>
+        <v>204.302546066056</v>
       </c>
       <c r="F12" t="n">
-        <v>201.1787451074734</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="G12" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I12" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J12" t="n">
-        <v>335.4150222482922</v>
+        <v>156.2629893634555</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7902645623569</v>
+        <v>283.6382316775202</v>
       </c>
       <c r="L12" t="n">
-        <v>652.8226261026791</v>
+        <v>473.6705932178425</v>
       </c>
       <c r="M12" t="n">
-        <v>882.4209603825697</v>
+        <v>703.268927497733</v>
       </c>
       <c r="N12" t="n">
-        <v>1123.931580570561</v>
+        <v>944.779547685724</v>
       </c>
       <c r="O12" t="n">
-        <v>1335.867598057628</v>
+        <v>1156.715565172791</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158656</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R12" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T12" t="n">
-        <v>1781.77422695151</v>
+        <v>1555.445332084925</v>
       </c>
       <c r="U12" t="n">
-        <v>1584.499339367804</v>
+        <v>1358.170444501219</v>
       </c>
       <c r="V12" t="n">
-        <v>1370.787812360838</v>
+        <v>1144.458917494253</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.554644097167</v>
+        <v>931.2257492305819</v>
       </c>
       <c r="X12" t="n">
-        <v>981.2286622360594</v>
+        <v>754.8997673694746</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.8267025998895</v>
+        <v>595.4978077333046</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.40989498774</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3165225494567</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8218778723667</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9110627406862</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="F13" t="n">
-        <v>430.2799368512775</v>
+        <v>122.991576717685</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H13" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K13" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>511.1809682508391</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M13" t="n">
-        <v>949.087503651918</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N13" t="n">
-        <v>1375.034379089348</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O13" t="n">
-        <v>1453.551040347901</v>
+        <v>1362.906706021821</v>
       </c>
       <c r="P13" t="n">
-        <v>1642.118498692661</v>
+        <v>1683.268659064545</v>
       </c>
       <c r="Q13" t="n">
         <v>1787.049525288419</v>
@@ -5229,22 +5229,22 @@
         <v>1575.748442655587</v>
       </c>
       <c r="T13" t="n">
-        <v>1575.748442655587</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U13" t="n">
-        <v>1575.748442655587</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="V13" t="n">
-        <v>1575.748442655587</v>
+        <v>783.7024613021761</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.748442655587</v>
+        <v>504.6327968110504</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.84529999302</v>
+        <v>504.6327968110504</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.109601381785</v>
+        <v>475.3224090011381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1033.809287088297</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="C14" t="n">
-        <v>623.6846964015673</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D14" t="n">
-        <v>623.6846964015673</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E14" t="n">
-        <v>209.344480918464</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F14" t="n">
-        <v>209.344480918464</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G14" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H14" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I14" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064785</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N14" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P14" t="n">
         <v>1601.546999092374</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R14" t="n">
         <v>1787.049525288419</v>
@@ -5311,19 +5311,19 @@
         <v>1700.918407900826</v>
       </c>
       <c r="U14" t="n">
-        <v>1444.030466752787</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="V14" t="n">
-        <v>1444.030466752787</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="W14" t="n">
-        <v>1444.030466752787</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="X14" t="n">
-        <v>1444.030466752787</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="Y14" t="n">
-        <v>1444.030466752787</v>
+        <v>1691.457388386403</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>445.5543329492901</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C15" t="n">
-        <v>311.5592616982358</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D15" t="n">
-        <v>201.1787451074734</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E15" t="n">
-        <v>201.1787451074734</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G15" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H15" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I15" t="n">
-        <v>54.34778796170228</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J15" t="n">
         <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>481.3970620182909</v>
+        <v>563.6655423722059</v>
       </c>
       <c r="L15" t="n">
-        <v>671.4294235586131</v>
+        <v>753.6979039125282</v>
       </c>
       <c r="M15" t="n">
-        <v>901.0277578385036</v>
+        <v>983.2962381924187</v>
       </c>
       <c r="N15" t="n">
-        <v>1142.538378026494</v>
+        <v>1224.80685838041</v>
       </c>
       <c r="O15" t="n">
-        <v>1354.474395513562</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P15" t="n">
         <v>1599.010322681675</v>
       </c>
       <c r="Q15" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V15" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W15" t="n">
-        <v>921.5853070821539</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X15" t="n">
-        <v>745.2593252210468</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y15" t="n">
-        <v>585.8573655848768</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.40989498774</v>
+        <v>842.8457204611254</v>
       </c>
       <c r="C16" t="n">
-        <v>915.3165225494567</v>
+        <v>842.8457204611254</v>
       </c>
       <c r="D16" t="n">
         <v>755.8218778723667</v>
@@ -5433,55 +5433,55 @@
         <v>122.991576717685</v>
       </c>
       <c r="I16" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J16" t="n">
         <v>116.8648064467601</v>
       </c>
       <c r="K16" t="n">
-        <v>381.5865293505955</v>
+        <v>269.2995510042442</v>
       </c>
       <c r="L16" t="n">
-        <v>782.4625254678897</v>
+        <v>670.1755471215383</v>
       </c>
       <c r="M16" t="n">
-        <v>875.4027113546831</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N16" t="n">
-        <v>969.3152853445271</v>
+        <v>1189.062608445761</v>
       </c>
       <c r="O16" t="n">
-        <v>1362.906706021821</v>
+        <v>1582.654029123055</v>
       </c>
       <c r="P16" t="n">
-        <v>1683.268659064545</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T16" t="n">
-        <v>1745.279268752169</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U16" t="n">
-        <v>1745.279268752169</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V16" t="n">
-        <v>1745.279268752169</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="W16" t="n">
-        <v>1737.189162133337</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.84529999302</v>
+        <v>1030.54542685517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1274.109601381785</v>
+        <v>1030.54542685517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1155.360683429091</v>
+        <v>1386.112852236509</v>
       </c>
       <c r="C17" t="n">
-        <v>1155.360683429091</v>
+        <v>1261.116537597348</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.360683429091</v>
+        <v>856.652607690409</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.360683429091</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3302713827786</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H17" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446591</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064788</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O17" t="n">
         <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
-        <v>1488.153676578333</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U17" t="n">
-        <v>1231.265735430293</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V17" t="n">
-        <v>1155.360683429091</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W17" t="n">
-        <v>1155.360683429091</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X17" t="n">
-        <v>1155.360683429091</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y17" t="n">
-        <v>1155.360683429091</v>
+        <v>1386.112852236509</v>
       </c>
     </row>
     <row r="18">
@@ -5585,61 +5585,61 @@
         <v>201.1787451074734</v>
       </c>
       <c r="G18" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I18" t="n">
-        <v>54.34778796170228</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J18" t="n">
-        <v>354.0218197042262</v>
+        <v>91.74661827365902</v>
       </c>
       <c r="K18" t="n">
-        <v>481.3970620182909</v>
+        <v>219.1218605877237</v>
       </c>
       <c r="L18" t="n">
-        <v>671.4294235586131</v>
+        <v>409.1542221280459</v>
       </c>
       <c r="M18" t="n">
-        <v>901.0277578385036</v>
+        <v>638.7525564079365</v>
       </c>
       <c r="N18" t="n">
-        <v>1142.538378026494</v>
+        <v>880.2631765959275</v>
       </c>
       <c r="O18" t="n">
-        <v>1354.474395513562</v>
+        <v>1092.199194082995</v>
       </c>
       <c r="P18" t="n">
-        <v>1516.74184232776</v>
+        <v>1254.466640897193</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540019</v>
+        <v>1696.761398406077</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T18" t="n">
-        <v>1781.77422695151</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U18" t="n">
-        <v>1584.499339367804</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V18" t="n">
-        <v>1370.787812360838</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W18" t="n">
-        <v>1157.554644097167</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X18" t="n">
-        <v>981.2286622360594</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y18" t="n">
-        <v>821.8267025998895</v>
+        <v>745.2593252210472</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.753848967053</v>
+        <v>609.679924407075</v>
       </c>
       <c r="C19" t="n">
-        <v>507.6604765287695</v>
+        <v>609.679924407075</v>
       </c>
       <c r="D19" t="n">
-        <v>507.6604765287695</v>
+        <v>450.185279729985</v>
       </c>
       <c r="E19" t="n">
-        <v>507.6604765287695</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0293506393608</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G19" t="n">
-        <v>176.7464627587414</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H19" t="n">
-        <v>35.74099050576838</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J19" t="n">
         <v>51.86344281542368</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5851657192591</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L19" t="n">
-        <v>717.4611618365533</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M19" t="n">
-        <v>810.4013477233467</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N19" t="n">
-        <v>1236.348223160776</v>
+        <v>1315.336568651599</v>
       </c>
       <c r="O19" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P19" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1626.461604371721</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1391.046742631182</v>
       </c>
       <c r="U19" t="n">
-        <v>1329.533116112649</v>
+        <v>1108.301368078788</v>
       </c>
       <c r="V19" t="n">
-        <v>1329.533116112649</v>
+        <v>834.4156230183103</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.533116112649</v>
+        <v>834.4156230183103</v>
       </c>
       <c r="X19" t="n">
-        <v>1091.189253972333</v>
+        <v>834.4156230183103</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.4535553610974</v>
+        <v>609.679924407075</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.1116180351842</v>
+        <v>729.024245848326</v>
       </c>
       <c r="C20" t="n">
-        <v>871.1116180351842</v>
+        <v>729.024245848326</v>
       </c>
       <c r="D20" t="n">
-        <v>871.1116180351842</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="E20" t="n">
-        <v>456.7714025520808</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576838</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446589</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5770,7 +5770,7 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q20" t="n">
         <v>1740.697478824117</v>
@@ -5782,22 +5782,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288419</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U20" t="n">
-        <v>1530.16158414038</v>
+        <v>1317.396852817887</v>
       </c>
       <c r="V20" t="n">
-        <v>1530.16158414038</v>
+        <v>1317.396852817887</v>
       </c>
       <c r="W20" t="n">
-        <v>1530.16158414038</v>
+        <v>1129.667643679373</v>
       </c>
       <c r="X20" t="n">
-        <v>1530.16158414038</v>
+        <v>729.024245848326</v>
       </c>
       <c r="Y20" t="n">
-        <v>1281.332797699674</v>
+        <v>729.024245848326</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>445.5543329492901</v>
+        <v>575.6875911053899</v>
       </c>
       <c r="C21" t="n">
         <v>441.6925198543356</v>
@@ -5819,37 +5819,37 @@
         <v>204.302546066056</v>
       </c>
       <c r="F21" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>54.34778796170228</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J21" t="n">
-        <v>354.0218197042262</v>
+        <v>91.74661827365902</v>
       </c>
       <c r="K21" t="n">
-        <v>481.3970620182909</v>
+        <v>297.5947177216664</v>
       </c>
       <c r="L21" t="n">
-        <v>841.6676203895091</v>
+        <v>487.6270792619887</v>
       </c>
       <c r="M21" t="n">
-        <v>1071.2659546694</v>
+        <v>717.2254135418792</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.776574857391</v>
+        <v>958.7360337298702</v>
       </c>
       <c r="O21" t="n">
-        <v>1524.712592344458</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.980039158656</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q21" t="n">
         <v>1775.234255540019</v>
@@ -5858,25 +5858,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936497</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352791</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345825</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821539</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X21" t="n">
-        <v>745.2593252210468</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y21" t="n">
-        <v>585.8573655848768</v>
+        <v>585.8573655848772</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.2398227528224</v>
+        <v>528.2341730498383</v>
       </c>
       <c r="C22" t="n">
-        <v>356.1464503145389</v>
+        <v>357.1408006115548</v>
       </c>
       <c r="D22" t="n">
-        <v>196.6518056374489</v>
+        <v>357.1408006115548</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576838</v>
+        <v>357.1408006115548</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576838</v>
+        <v>192.5096747221461</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K22" t="n">
-        <v>175.3063357648813</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L22" t="n">
-        <v>262.2032206471524</v>
+        <v>451.4831578130901</v>
       </c>
       <c r="M22" t="n">
-        <v>700.1097560482312</v>
+        <v>889.389693214169</v>
       </c>
       <c r="N22" t="n">
-        <v>1126.056631485661</v>
+        <v>1315.336568651599</v>
       </c>
       <c r="O22" t="n">
-        <v>1519.648052162955</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
@@ -5940,22 +5940,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T22" t="n">
-        <v>1787.049525288419</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.974499450022</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V22" t="n">
-        <v>1457.088754389544</v>
+        <v>995.0035439350083</v>
       </c>
       <c r="W22" t="n">
-        <v>1178.019089898419</v>
+        <v>715.9338794438827</v>
       </c>
       <c r="X22" t="n">
-        <v>939.6752277581021</v>
+        <v>715.9338794438827</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.9395291468668</v>
+        <v>715.9338794438827</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1243.137589142099</v>
+        <v>1216.969985563303</v>
       </c>
       <c r="C23" t="n">
-        <v>833.012998455369</v>
+        <v>806.8453948765733</v>
       </c>
       <c r="D23" t="n">
-        <v>428.5490685484295</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="E23" t="n">
-        <v>40.55669126117681</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="F23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L23" t="n">
         <v>803.0823624768997</v>
@@ -6028,13 +6028,13 @@
         <v>2027.83456305884</v>
       </c>
       <c r="W23" t="n">
-        <v>1644.074262194009</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="X23" t="n">
-        <v>1644.074262194009</v>
+        <v>1627.191165227793</v>
       </c>
       <c r="Y23" t="n">
-        <v>1243.137589142099</v>
+        <v>1627.191165227793</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
         <v>435.4471416880494</v>
@@ -6059,13 +6059,13 @@
         <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
         <v>358.8375204596346</v>
@@ -6086,25 +6086,25 @@
         <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1861.179150626033</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.6500636994603</v>
+        <v>319.3742660471102</v>
       </c>
       <c r="C25" t="n">
-        <v>40.55669126117681</v>
+        <v>319.3742660471102</v>
       </c>
       <c r="D25" t="n">
-        <v>40.55669126117681</v>
+        <v>319.3742660471102</v>
       </c>
       <c r="E25" t="n">
-        <v>40.55669126117681</v>
+        <v>158.4634509154296</v>
       </c>
       <c r="F25" t="n">
-        <v>40.55669126117681</v>
+        <v>158.4634509154296</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
         <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L25" t="n">
-        <v>580.9980326375839</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M25" t="n">
-        <v>1018.904568038663</v>
+        <v>1075.03758875322</v>
       </c>
       <c r="N25" t="n">
-        <v>1444.851443476092</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O25" t="n">
-        <v>1838.442864153386</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P25" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>2027.83456305884</v>
+        <v>1986.06430652259</v>
       </c>
       <c r="S25" t="n">
-        <v>1933.544976689593</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="T25" t="n">
-        <v>1698.130114949054</v>
+        <v>1581.118618685469</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.38474039666</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="V25" t="n">
-        <v>1141.498995336182</v>
+        <v>1024.487499072597</v>
       </c>
       <c r="W25" t="n">
-        <v>862.4293308450567</v>
+        <v>745.4178345814712</v>
       </c>
       <c r="X25" t="n">
-        <v>624.08546870474</v>
+        <v>507.0739724411546</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.3497700935047</v>
+        <v>507.0739724411546</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>739.5006073835248</v>
+        <v>1289.250463217177</v>
       </c>
       <c r="C26" t="n">
-        <v>329.3760166967949</v>
+        <v>879.1258725304473</v>
       </c>
       <c r="D26" t="n">
-        <v>329.3760166967949</v>
+        <v>879.1258725304473</v>
       </c>
       <c r="E26" t="n">
-        <v>329.3760166967949</v>
+        <v>464.785657047344</v>
       </c>
       <c r="F26" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="G26" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H26" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>256.3597561632702</v>
+        <v>147.3860862243982</v>
       </c>
       <c r="K26" t="n">
-        <v>437.0184264389392</v>
+        <v>328.0447565000673</v>
       </c>
       <c r="L26" t="n">
-        <v>676.0866954007588</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M26" t="n">
-        <v>954.9223303095777</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N26" t="n">
-        <v>1240.13840969833</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O26" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P26" t="n">
-        <v>1715.336369786654</v>
+        <v>1606.362699847782</v>
       </c>
       <c r="Q26" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>1874.035135963785</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U26" t="n">
-        <v>1874.035135963785</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V26" t="n">
-        <v>1524.197581300266</v>
+        <v>1689.893861048225</v>
       </c>
       <c r="W26" t="n">
-        <v>1140.437280435435</v>
+        <v>1689.893861048225</v>
       </c>
       <c r="X26" t="n">
-        <v>1140.437280435435</v>
+        <v>1289.250463217177</v>
       </c>
       <c r="Y26" t="n">
-        <v>739.5006073835248</v>
+        <v>1289.250463217177</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>242.5443587990661</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>722.1922216057762</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.081275962839</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>1465.59189615083</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
         <v>1928.049576833458</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.1447083765503</v>
+        <v>459.8114650430575</v>
       </c>
       <c r="C28" t="n">
-        <v>200.0513359382668</v>
+        <v>288.718092604774</v>
       </c>
       <c r="D28" t="n">
-        <v>40.55669126117681</v>
+        <v>288.718092604774</v>
       </c>
       <c r="E28" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="F28" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="G28" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="H28" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1206728889534</v>
+        <v>321.4008664746675</v>
       </c>
       <c r="L28" t="n">
-        <v>515.9966690062475</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M28" t="n">
-        <v>953.9032044073265</v>
+        <v>815.217048478755</v>
       </c>
       <c r="N28" t="n">
-        <v>1379.850079844756</v>
+        <v>1241.163923916185</v>
       </c>
       <c r="O28" t="n">
-        <v>1773.44150052205</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P28" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>2027.83456305884</v>
+        <v>1986.06430652259</v>
       </c>
       <c r="S28" t="n">
-        <v>2027.83456305884</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="T28" t="n">
-        <v>1857.624759626144</v>
+        <v>1581.118618685469</v>
       </c>
       <c r="U28" t="n">
-        <v>1574.87938507375</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="V28" t="n">
-        <v>1300.993640013272</v>
+        <v>1024.487499072597</v>
       </c>
       <c r="W28" t="n">
-        <v>1021.923975522147</v>
+        <v>745.4178345814712</v>
       </c>
       <c r="X28" t="n">
-        <v>783.58011338183</v>
+        <v>684.5471636542927</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.8444147705947</v>
+        <v>459.8114650430575</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>450.6812819479067</v>
+        <v>1281.481649435611</v>
       </c>
       <c r="C29" t="n">
-        <v>40.55669126117681</v>
+        <v>871.3570587488813</v>
       </c>
       <c r="D29" t="n">
-        <v>40.55669126117681</v>
+        <v>871.3570587488813</v>
       </c>
       <c r="E29" t="n">
-        <v>40.55669126117681</v>
+        <v>871.3570587488813</v>
       </c>
       <c r="F29" t="n">
-        <v>40.55669126117681</v>
+        <v>450.3266467025688</v>
       </c>
       <c r="G29" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H29" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
         <v>147.3860862243982</v>
@@ -6475,13 +6475,13 @@
         <v>1069.00207981895</v>
       </c>
       <c r="N29" t="n">
-        <v>1354.218159207702</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O29" t="n">
-        <v>1618.13883439347</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P29" t="n">
-        <v>1829.416119296026</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q29" t="n">
         <v>1981.482516594539</v>
@@ -6490,25 +6490,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1948.59077024814</v>
       </c>
       <c r="T29" t="n">
-        <v>1815.069831736347</v>
+        <v>1948.59077024814</v>
       </c>
       <c r="U29" t="n">
-        <v>1662.482532495354</v>
+        <v>1691.702829100101</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.482532495354</v>
+        <v>1691.702829100101</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.482532495354</v>
+        <v>1691.702829100101</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.839134664306</v>
+        <v>1691.702829100101</v>
       </c>
       <c r="Y29" t="n">
-        <v>860.9024616123961</v>
+        <v>1691.702829100101</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>100.158367003969</v>
       </c>
       <c r="H30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>242.5443587990661</v>
+        <v>486.4501396158342</v>
       </c>
       <c r="L30" t="n">
         <v>676.4825011561564</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>836.7877926785527</v>
+        <v>377.9329515800797</v>
       </c>
       <c r="C31" t="n">
-        <v>665.6944202402692</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="D31" t="n">
-        <v>619.6321063748021</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="E31" t="n">
-        <v>458.7212912431216</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="F31" t="n">
-        <v>294.0901653537129</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H31" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889534</v>
+        <v>321.4008664746675</v>
       </c>
       <c r="L31" t="n">
-        <v>515.9966690062475</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M31" t="n">
-        <v>953.9032044073265</v>
+        <v>1160.18339799304</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.850079844756</v>
+        <v>1586.13027343047</v>
       </c>
       <c r="O31" t="n">
-        <v>1773.44150052205</v>
+        <v>1664.646934689024</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.118618685469</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.373244133075</v>
+        <v>1581.66762827728</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.487499072597</v>
+        <v>1307.781883216802</v>
       </c>
       <c r="W31" t="n">
-        <v>1024.487499072597</v>
+        <v>1028.712218725676</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.487499072597</v>
+        <v>790.3683565853594</v>
       </c>
       <c r="Y31" t="n">
-        <v>1024.487499072597</v>
+        <v>565.6326579741241</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>816.0333125113937</v>
+        <v>1617.613383394351</v>
       </c>
       <c r="C32" t="n">
-        <v>405.9087218246638</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="D32" t="n">
-        <v>405.9087218246638</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="E32" t="n">
-        <v>405.9087218246638</v>
+        <v>793.1485772245173</v>
       </c>
       <c r="F32" t="n">
-        <v>43.75524500103158</v>
+        <v>372.1181651782049</v>
       </c>
       <c r="G32" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H32" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>147.3860862243982</v>
+        <v>160.302003791167</v>
       </c>
       <c r="K32" t="n">
-        <v>328.0447565000673</v>
+        <v>340.960674066836</v>
       </c>
       <c r="L32" t="n">
-        <v>676.0866954007588</v>
+        <v>580.0289430286556</v>
       </c>
       <c r="M32" t="n">
-        <v>954.9223303095777</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N32" t="n">
-        <v>1240.13840969833</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O32" t="n">
-        <v>1504.059084884098</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P32" t="n">
-        <v>1715.336369786654</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
@@ -6742,10 +6742,10 @@
         <v>2027.83456305884</v>
       </c>
       <c r="X32" t="n">
-        <v>1627.191165227793</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="Y32" t="n">
-        <v>1226.254492175883</v>
+        <v>2027.83456305884</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>100.158367003969</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906745</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M33" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.457311520408</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1425.876022572014</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833458</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.0998863616404</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="C34" t="n">
-        <v>653.0065139233569</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="D34" t="n">
-        <v>493.5118692462669</v>
+        <v>760.6375786277752</v>
       </c>
       <c r="E34" t="n">
-        <v>332.6010541145864</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="F34" t="n">
-        <v>167.9699282251777</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67914357083211</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1206728889534</v>
+        <v>321.4008664746675</v>
       </c>
       <c r="L34" t="n">
-        <v>515.9966690062475</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M34" t="n">
-        <v>953.9032044073265</v>
+        <v>815.217048478755</v>
       </c>
       <c r="N34" t="n">
-        <v>1379.850079844756</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O34" t="n">
-        <v>1773.44150052205</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P34" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
@@ -6891,19 +6891,19 @@
         <v>2027.83456305884</v>
       </c>
       <c r="U34" t="n">
-        <v>2027.83456305884</v>
+        <v>1745.089188506446</v>
       </c>
       <c r="V34" t="n">
-        <v>1753.948817998362</v>
+        <v>1471.203443445968</v>
       </c>
       <c r="W34" t="n">
-        <v>1474.879153507237</v>
+        <v>1192.133778954843</v>
       </c>
       <c r="X34" t="n">
-        <v>1236.53529136692</v>
+        <v>1144.8679219161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1011.799592755685</v>
+        <v>920.1322233048652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>796.5637286120284</v>
+        <v>1376.828345623929</v>
       </c>
       <c r="C35" t="n">
-        <v>796.5637286120284</v>
+        <v>966.7037549371995</v>
       </c>
       <c r="D35" t="n">
-        <v>392.0997987050889</v>
+        <v>562.23982503026</v>
       </c>
       <c r="E35" t="n">
-        <v>392.0997987050889</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F35" t="n">
-        <v>392.0997987050889</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6970,19 +6970,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="U35" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V35" t="n">
-        <v>1180.32402947686</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W35" t="n">
-        <v>796.5637286120284</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X35" t="n">
-        <v>796.5637286120284</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y35" t="n">
-        <v>796.5637286120284</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>382.0908441115434</v>
       </c>
       <c r="D36" t="n">
-        <v>265.1936863309358</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E36" t="n">
         <v>144.7008703232638</v>
       </c>
       <c r="F36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I36" t="n">
-        <v>54.34778796170227</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J36" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M36" t="n">
-        <v>870.0557770928635</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
         <v>1687.264539063037</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>583.3148485912187</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2214761529352</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2829315268576</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="E37" t="n">
-        <v>200.3721163951771</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="F37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>451.4831578130892</v>
+        <v>451.4831578130897</v>
       </c>
       <c r="M37" t="n">
-        <v>889.3896932141681</v>
+        <v>889.3896932141686</v>
       </c>
       <c r="N37" t="n">
         <v>1315.336568651598</v>
@@ -7122,25 +7122,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1787.049525288419</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T37" t="n">
-        <v>1787.049525288419</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U37" t="n">
-        <v>1787.049525288419</v>
+        <v>1239.475667202968</v>
       </c>
       <c r="V37" t="n">
-        <v>1513.163780227941</v>
+        <v>965.5899221424904</v>
       </c>
       <c r="W37" t="n">
-        <v>1234.094115736815</v>
+        <v>686.5202576513648</v>
       </c>
       <c r="X37" t="n">
-        <v>995.7502535964984</v>
+        <v>448.1763955110481</v>
       </c>
       <c r="Y37" t="n">
-        <v>771.0145549852631</v>
+        <v>223.4406968998128</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1053.451669760068</v>
+        <v>1376.828345623929</v>
       </c>
       <c r="C38" t="n">
-        <v>1053.451669760068</v>
+        <v>966.7037549371995</v>
       </c>
       <c r="D38" t="n">
-        <v>648.9877398531285</v>
+        <v>562.23982503026</v>
       </c>
       <c r="E38" t="n">
-        <v>234.6475243700252</v>
+        <v>147.8996095471567</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J38" t="n">
         <v>142.5703854689898</v>
@@ -7180,10 +7180,10 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M38" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7192,7 +7192,7 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q38" t="n">
         <v>1740.697478824117</v>
@@ -7210,16 +7210,16 @@
         <v>1787.049525288419</v>
       </c>
       <c r="V38" t="n">
-        <v>1437.211970624899</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W38" t="n">
-        <v>1053.451669760068</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X38" t="n">
-        <v>1053.451669760068</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y38" t="n">
-        <v>1053.451669760068</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>445.5543329492899</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C39" t="n">
-        <v>445.5543329492899</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D39" t="n">
-        <v>328.6571751686823</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E39" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F39" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G39" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J39" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
@@ -7286,19 +7286,19 @@
         <v>1545.804889936497</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821537</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210465</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848766</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>206.8343629440519</v>
+        <v>859.0851398660334</v>
       </c>
       <c r="C40" t="n">
-        <v>35.74099050576837</v>
+        <v>687.9917674277499</v>
       </c>
       <c r="D40" t="n">
-        <v>35.74099050576837</v>
+        <v>528.4971227506599</v>
       </c>
       <c r="E40" t="n">
-        <v>35.74099050576837</v>
+        <v>367.5863076189793</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576837</v>
+        <v>202.9551817295706</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576837</v>
+        <v>202.9551817295706</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J40" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K40" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>451.4831578130892</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M40" t="n">
-        <v>889.3896932141681</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N40" t="n">
-        <v>1315.336568651598</v>
+        <v>1375.034379089348</v>
       </c>
       <c r="O40" t="n">
         <v>1708.927989328892</v>
@@ -7356,28 +7356,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R40" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S40" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="T40" t="n">
-        <v>1693.314414193646</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="U40" t="n">
-        <v>1410.569039641252</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="V40" t="n">
-        <v>1136.683294580774</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="W40" t="n">
-        <v>857.6136300896483</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="X40" t="n">
-        <v>619.2697679493316</v>
+        <v>1271.520544871313</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.5340693380963</v>
+        <v>1046.784846260078</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1129.224911088469</v>
+        <v>1688.898692368708</v>
       </c>
       <c r="C41" t="n">
-        <v>1129.224911088469</v>
+        <v>1278.774101681978</v>
       </c>
       <c r="D41" t="n">
-        <v>1129.224911088469</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E41" t="n">
-        <v>1129.224911088469</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F41" t="n">
-        <v>708.1944990421566</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="G41" t="n">
-        <v>301.6230973406193</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I41" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689895</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446585</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M41" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N41" t="n">
         <v>1126.349039004049</v>
@@ -7444,19 +7444,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="U41" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V41" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W41" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X41" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y41" t="n">
-        <v>1129.224911088469</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>547.5285987132485</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C42" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D42" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F42" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G42" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
@@ -7490,25 +7490,25 @@
         <v>54.34778796170227</v>
       </c>
       <c r="J42" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7610195839799</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M42" t="n">
-        <v>657.3593538638704</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N42" t="n">
-        <v>898.8699740518614</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1110.805991538929</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1273.073438353127</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
         <v>1687.264539063037</v>
@@ -7517,25 +7517,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V42" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W42" t="n">
-        <v>921.5853070821537</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X42" t="n">
-        <v>745.2593252210465</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y42" t="n">
-        <v>585.8573655848766</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.9133361791415</v>
+        <v>900.8553964022831</v>
       </c>
       <c r="C43" t="n">
-        <v>367.819963740858</v>
+        <v>729.7620239639996</v>
       </c>
       <c r="D43" t="n">
-        <v>367.819963740858</v>
+        <v>570.2673792869095</v>
       </c>
       <c r="E43" t="n">
-        <v>366.6550042757965</v>
+        <v>409.356564155229</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0238783863878</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576837</v>
@@ -7575,13 +7575,13 @@
         <v>110.3049721335449</v>
       </c>
       <c r="L43" t="n">
-        <v>451.4831578130892</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M43" t="n">
-        <v>889.3896932141681</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N43" t="n">
-        <v>1315.336568651598</v>
+        <v>1375.034379089348</v>
       </c>
       <c r="O43" t="n">
         <v>1708.927989328892</v>
@@ -7599,22 +7599,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T43" t="n">
-        <v>1787.049525288419</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.304150736025</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.418405675547</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="W43" t="n">
-        <v>951.3487411844212</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="X43" t="n">
-        <v>951.3487411844212</v>
+        <v>1313.290801407563</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.6130425731859</v>
+        <v>1088.555102796327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>871.1116180351842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="C44" t="n">
-        <v>871.1116180351842</v>
+        <v>1376.924934601689</v>
       </c>
       <c r="D44" t="n">
-        <v>871.1116180351842</v>
+        <v>972.4610046947491</v>
       </c>
       <c r="E44" t="n">
-        <v>456.7714025520808</v>
+        <v>558.1207892116458</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>137.0903771653334</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J44" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K44" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
         <v>562.2973247064783</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U44" t="n">
-        <v>1254.871918900016</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V44" t="n">
-        <v>1254.871918900016</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W44" t="n">
-        <v>871.1116180351842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X44" t="n">
-        <v>871.1116180351842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y44" t="n">
-        <v>871.1116180351842</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>445.5543329492899</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C45" t="n">
-        <v>311.5592616982356</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D45" t="n">
-        <v>194.662103917628</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E45" t="n">
-        <v>74.16928790995601</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F45" t="n">
         <v>35.74099050576837</v>
@@ -7727,25 +7727,25 @@
         <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>323.4758792142294</v>
+        <v>170.2194754076013</v>
       </c>
       <c r="K45" t="n">
-        <v>450.8511215282941</v>
+        <v>297.594717721666</v>
       </c>
       <c r="L45" t="n">
-        <v>640.8834830686163</v>
+        <v>487.6270792619882</v>
       </c>
       <c r="M45" t="n">
-        <v>870.4818173485069</v>
+        <v>717.2254135418788</v>
       </c>
       <c r="N45" t="n">
-        <v>1312.77657485739</v>
+        <v>958.7360337298697</v>
       </c>
       <c r="O45" t="n">
-        <v>1524.712592344458</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P45" t="n">
-        <v>1686.980039158656</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q45" t="n">
         <v>1775.234255540018</v>
@@ -7754,25 +7754,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V45" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W45" t="n">
-        <v>921.5853070821537</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X45" t="n">
-        <v>745.2593252210465</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y45" t="n">
-        <v>585.8573655848766</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.74099050576837</v>
+        <v>1086.40989498774</v>
       </c>
       <c r="C46" t="n">
-        <v>35.74099050576837</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="D46" t="n">
-        <v>35.74099050576837</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E46" t="n">
-        <v>35.74099050576837</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F46" t="n">
-        <v>35.74099050576837</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G46" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H46" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>51.86344281542367</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K46" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L46" t="n">
-        <v>451.4831578130892</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M46" t="n">
-        <v>889.3896932141681</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N46" t="n">
-        <v>1315.336568651598</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O46" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P46" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S46" t="n">
-        <v>1757.635903495901</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.221041755362</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="U46" t="n">
-        <v>1239.475667202968</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="V46" t="n">
-        <v>965.5899221424904</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="W46" t="n">
-        <v>686.5202576513648</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="X46" t="n">
-        <v>448.1763955110481</v>
+        <v>1498.84529999302</v>
       </c>
       <c r="Y46" t="n">
-        <v>223.4406968998128</v>
+        <v>1274.109601381785</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>46.37330670087129</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>190.7525194816466</v>
+        <v>282.8558693885716</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4070593688422</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>85.98363619591264</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>83.09947510496468</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>83.09947510496443</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>94.94264165592207</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.98363619591217</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.9577745766629</v>
+        <v>357.6167082096173</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>79.26551225650763</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>275.0873646564005</v>
       </c>
       <c r="O19" t="n">
-        <v>6.961273970310202</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>79.2655122565078</v>
       </c>
       <c r="L21" t="n">
-        <v>171.9577745766626</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>357.6167082096173</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>256.8497987851254</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>63.64240096979827</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.25851141721628</v>
+        <v>321.4523407766947</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>196.7870471142712</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>112.3941039857849</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0744140796687</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>292.5409103700888</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>318.2573327462026</v>
+        <v>245.3141396420405</v>
       </c>
       <c r="P28" t="n">
-        <v>178.052047047741</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>225.3064842911557</v>
+        <v>225.3064842911556</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.04638138057453</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.04638138057464</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.2397745880150808</v>
       </c>
       <c r="L30" t="n">
-        <v>246.3694755724931</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10284,13 +10284,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>178.052047047741</v>
+        <v>160.3960931358108</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>13.04638138057447</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>110.0744140796687</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>225.3064842911557</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>69.17443794397843</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>262.4449901762273</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>178.052047047741</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>114.3843041409642</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>256.8497987851244</v>
+        <v>256.8497987851249</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>190.7525194816463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>256.8497987851244</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,7 +10995,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>257.956514122213</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>329.2291760894421</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>256.8497987851244</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,7 +11232,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>257.9565141222128</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>215.2752156410469</v>
+        <v>60.47076735152363</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>202.8122599200936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>357.6167082096171</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>256.8497987851244</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>276.6915141887436</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>145.795222146744</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23275,7 +23275,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>71.96182989363285</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
         <v>3.166568202456219</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23345,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>147.9208493129272</v>
+        <v>9.544037726943145</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.8263122829726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.4710576933097</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>230.6382321759532</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
         <v>285.9311321812619</v>
@@ -23551,13 +23551,13 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>370.5562885369043</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6.451474777946714</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>71.74609406744794</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>268.2697622935704</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>282.2769932870934</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>271.1931776356939</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>75.8017036050538</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>147.9208493129272</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.853476128085418</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>269.2254606524957</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>3.166568202456219</v>
@@ -24022,7 +24022,7 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>194.0707808090551</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.586807745092</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.8319255745382</v>
       </c>
       <c r="C21" t="n">
-        <v>128.8319255745388</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>9.419061627599319</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
@@ -24180,10 +24180,10 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>224.4036452268574</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>58.61358195447684</v>
       </c>
       <c r="E23" t="n">
-        <v>26.08435981389204</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
@@ -24268,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>47.89236694410293</v>
       </c>
       <c r="H25" t="n">
         <v>139.5954175304433</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>74.48882733006198</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>58.37565118516417</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>11.77788412637477</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24621,7 +24621,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.55300772476436</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>175.6984593010067</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>6.818451331123725</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>103.2576354879756</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>112.2980075035067</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6.048173208741559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>58.2881658704535</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5056876845219</v>
+        <v>77.4263967091203</v>
       </c>
       <c r="H32" t="n">
         <v>285.9311321812619</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.48095440745237</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>189.1672250505586</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>308.9496432773311</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.71046756719451</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>69.82626658917451</v>
+        <v>69.82626658917428</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>107.4705390505023</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6200590018132</v>
@@ -25362,13 +25362,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>138.7160322610243</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9026394002351</v>
+        <v>308.9496432773311</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
@@ -25411,7 +25411,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>100.954523106319</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>69.82626658917431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>60.43144856867661</v>
       </c>
       <c r="I40" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
-        <v>140.2629531393086</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>308.9496432773315</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>22.70784641475944</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.954523106319</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>69.82626658917451</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>158.1483971099528</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>44.10353606915935</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>305.3363630940087</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>23.37012163502541</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>69.82626658917471</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>104.7777180703237</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>69.82626658917451</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.7160322610245</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>159.8263122829728</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404871.7953730323</v>
+        <v>404871.7953730326</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404871.7953730324</v>
+        <v>404871.7953730325</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404871.7953730324</v>
+        <v>404871.7953730325</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>404871.7953730324</v>
+        <v>404871.7953730325</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453733.9731393169</v>
+        <v>453733.973139317</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>453733.973139317</v>
+        <v>453733.9731393171</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>453733.9731393169</v>
+        <v>453733.9731393171</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>404871.7953730322</v>
+        <v>404871.7953730325</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404871.7953730322</v>
+        <v>404871.7953730325</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>453606.7885146522</v>
       </c>
       <c r="C2" t="n">
-        <v>453606.788514652</v>
+        <v>453606.7885146522</v>
       </c>
       <c r="D2" t="n">
         <v>453606.7885146521</v>
       </c>
       <c r="E2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108978</v>
       </c>
       <c r="F2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108978</v>
       </c>
       <c r="G2" t="n">
         <v>257719.6121108978</v>
@@ -26334,25 +26334,25 @@
         <v>257719.6121108978</v>
       </c>
       <c r="I2" t="n">
+        <v>281594.5176914027</v>
+      </c>
+      <c r="J2" t="n">
         <v>281594.5176914026</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>281594.5176914027</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>281594.5176914026</v>
       </c>
-      <c r="L2" t="n">
-        <v>281594.5176914028</v>
-      </c>
       <c r="M2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108978</v>
       </c>
       <c r="N2" t="n">
         <v>257719.6121108978</v>
       </c>
       <c r="O2" t="n">
-        <v>257719.6121108978</v>
+        <v>257719.6121108977</v>
       </c>
       <c r="P2" t="n">
         <v>257719.6121108977</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630441</v>
+        <v>560128.3559630442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723704</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685872</v>
+        <v>96333.82383685873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>350872.3040056569</v>
       </c>
       <c r="E4" t="n">
-        <v>18679.78788256209</v>
+        <v>18679.7878825621</v>
       </c>
       <c r="F4" t="n">
-        <v>18679.78788256209</v>
+        <v>18679.7878825621</v>
       </c>
       <c r="G4" t="n">
         <v>18679.7878825621</v>
       </c>
       <c r="H4" t="n">
-        <v>18679.78788256209</v>
+        <v>18679.7878825621</v>
       </c>
       <c r="I4" t="n">
         <v>31781.80655567142</v>
@@ -26450,16 +26450,16 @@
         <v>31781.80655567142</v>
       </c>
       <c r="M4" t="n">
-        <v>18679.78788256208</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="N4" t="n">
         <v>18679.78788256209</v>
       </c>
       <c r="O4" t="n">
-        <v>18679.78788256208</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="P4" t="n">
-        <v>18679.78788256208</v>
+        <v>18679.78788256209</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="F5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,10 +26502,10 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="O5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69106.88450899534</v>
+        <v>69098.08482336592</v>
       </c>
       <c r="C6" t="n">
-        <v>69106.88450899516</v>
+        <v>69098.08482336592</v>
       </c>
       <c r="D6" t="n">
-        <v>69106.88450899522</v>
+        <v>69098.08482336586</v>
       </c>
       <c r="E6" t="n">
-        <v>-359830.9562435742</v>
+        <v>-360539.3529877885</v>
       </c>
       <c r="F6" t="n">
-        <v>200297.3997194699</v>
+        <v>199589.0029752557</v>
       </c>
       <c r="G6" t="n">
-        <v>200297.39971947</v>
+        <v>199589.0029752557</v>
       </c>
       <c r="H6" t="n">
-        <v>200297.3997194699</v>
+        <v>199589.0029752557</v>
       </c>
       <c r="I6" t="n">
-        <v>191402.904545518</v>
+        <v>190779.7753212343</v>
       </c>
       <c r="J6" t="n">
-        <v>207410.3540527551</v>
+        <v>206787.2248284712</v>
       </c>
       <c r="K6" t="n">
-        <v>207410.354052755</v>
+        <v>206787.2248284713</v>
       </c>
       <c r="L6" t="n">
-        <v>207410.3540527552</v>
+        <v>206787.2248284712</v>
       </c>
       <c r="M6" t="n">
-        <v>103963.5758826112</v>
+        <v>103255.179138397</v>
       </c>
       <c r="N6" t="n">
-        <v>200297.3997194699</v>
+        <v>199589.0029752557</v>
       </c>
       <c r="O6" t="n">
-        <v>200297.39971947</v>
+        <v>199589.0029752557</v>
       </c>
       <c r="P6" t="n">
-        <v>200297.3997194699</v>
+        <v>199589.0029752557</v>
       </c>
     </row>
   </sheetData>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="J4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
         <v>446.7623813221047</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260527</v>
+        <v>60.1962594426052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J12" t="n">
-        <v>302.7010421641655</v>
+        <v>102.9446478805588</v>
       </c>
       <c r="K12" t="n">
         <v>128.6618609232977</v>
@@ -35506,13 +35506,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
-        <v>354.6590314151798</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="Q12" t="n">
         <v>89.14567311248757</v>
       </c>
       <c r="R12" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N13" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P13" t="n">
-        <v>190.4721801462223</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.3949763593511</v>
+        <v>104.8291578018929</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>128.6618609232977</v>
+        <v>211.7613360282623</v>
       </c>
       <c r="L15" t="n">
         <v>191.9518803437599</v>
@@ -35743,7 +35743,7 @@
         <v>214.076785340472</v>
       </c>
       <c r="P15" t="n">
-        <v>247.0059870384977</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
         <v>89.14567311248757</v>
@@ -35807,7 +35807,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
-        <v>267.3956797008439</v>
+        <v>153.9744894520041</v>
       </c>
       <c r="L16" t="n">
         <v>404.9252486033274</v>
@@ -35816,16 +35816,16 @@
         <v>93.87897564322566</v>
       </c>
       <c r="N16" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O16" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P16" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.8291578018925</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R17" t="n">
-        <v>46.82024895384019</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K18" t="n">
         <v>128.6618609232977</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>261.1034476891505</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="R18" t="n">
-        <v>11.934615907475</v>
+        <v>91.20012816398263</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K19" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L19" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N19" t="n">
-        <v>430.2493691287167</v>
+        <v>369.9485505047278</v>
       </c>
       <c r="O19" t="n">
-        <v>86.27103281733392</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R20" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895384065</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K21" t="n">
-        <v>128.6618609232977</v>
+        <v>207.9273731798055</v>
       </c>
       <c r="L21" t="n">
-        <v>363.9096549204225</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
         <v>231.9175093736268</v>
@@ -36220,7 +36220,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="R21" t="n">
         <v>11.934615907475</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K22" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L22" t="n">
-        <v>87.77463119421319</v>
+        <v>344.6244299793386</v>
       </c>
       <c r="M22" t="n">
         <v>442.3298337384635</v>
@@ -36296,10 +36296,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>123.7075217471784</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L23" t="n">
-        <v>479.8359656331641</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M23" t="n">
         <v>281.6521564735544</v>
@@ -36454,13 +36454,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>156.4041845297039</v>
+        <v>410.5980138891822</v>
       </c>
       <c r="R24" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L25" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>442.3298337384635</v>
+        <v>290.6660227574968</v>
       </c>
       <c r="N25" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O25" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>172.459224763165</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>217.9828938404983</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36615,10 +36615,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.5560401330744</v>
+        <v>378.9089058048045</v>
       </c>
       <c r="R26" t="n">
-        <v>175.0987005459018</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L27" t="n">
-        <v>484.4927907138486</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M27" t="n">
-        <v>506.9586407647101</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N27" t="n">
         <v>243.9501214020111</v>
@@ -36694,7 +36694,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248757</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36755,25 +36755,25 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L28" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N28" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5670915932262</v>
+        <v>324.6238984890642</v>
       </c>
       <c r="P28" t="n">
-        <v>238.1171678251211</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M29" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="N29" t="n">
-        <v>288.0970498876284</v>
+        <v>301.1434312682029</v>
       </c>
       <c r="O29" t="n">
         <v>266.5865405916856</v>
@@ -36852,7 +36852,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.6024215136491</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
         <v>46.82024895384008</v>
@@ -36910,13 +36910,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
-        <v>128.6618609232977</v>
+        <v>128.9016355113127</v>
       </c>
       <c r="L30" t="n">
-        <v>438.3213559162529</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M30" t="n">
         <v>231.9175093736268</v>
@@ -36992,7 +36992,7 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
@@ -37004,13 +37004,13 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P31" t="n">
-        <v>238.1171678251211</v>
+        <v>220.4612139131908</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.9084797608297</v>
+        <v>120.9548611414042</v>
       </c>
       <c r="K32" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L32" t="n">
-        <v>351.5575140411026</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
-        <v>281.6521564735544</v>
+        <v>506.95864076471</v>
       </c>
       <c r="N32" t="n">
         <v>288.0970498876284</v>
@@ -37092,7 +37092,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0987005459018</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37159,19 +37159,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
-        <v>506.9586407647101</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>283.2512232844504</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.14567311248757</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K34" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M34" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N34" t="n">
-        <v>430.2493691287167</v>
+        <v>357.3061760245546</v>
       </c>
       <c r="O34" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>238.1171678251211</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895383996</v>
+        <v>46.82024895384019</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
@@ -37393,10 +37393,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M36" t="n">
-        <v>446.7623813221047</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N36" t="n">
-        <v>358.3344255429753</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O36" t="n">
         <v>214.076785340472</v>
@@ -37405,7 +37405,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R36" t="n">
         <v>100.7929153791732</v>
@@ -37469,7 +37469,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>344.6244299793377</v>
+        <v>344.6244299793381</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
@@ -37548,13 +37548,13 @@
         <v>182.4835053289586</v>
       </c>
       <c r="L38" t="n">
-        <v>241.4830999614336</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M38" t="n">
         <v>281.6521564735544</v>
       </c>
       <c r="N38" t="n">
-        <v>288.0970498876284</v>
+        <v>288.0970498876285</v>
       </c>
       <c r="O38" t="n">
         <v>266.5865405916856</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
         <v>302.7010421641655</v>
@@ -37633,7 +37633,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
-        <v>434.7026408836574</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O39" t="n">
         <v>214.076785340472</v>
@@ -37642,10 +37642,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R39" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L40" t="n">
-        <v>344.6244299793377</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37715,7 +37715,7 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5670915932262</v>
+        <v>337.2662729692368</v>
       </c>
       <c r="P40" t="n">
         <v>60.06512077738009</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>107.9084797608294</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K41" t="n">
         <v>182.4835053289586</v>
@@ -37803,7 +37803,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R41" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895383996</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
         <v>128.6618609232977</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>418.3748492019297</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R42" t="n">
         <v>100.7929153791732</v>
@@ -37943,7 +37943,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
-        <v>344.6244299793377</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
@@ -37952,7 +37952,7 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5670915932262</v>
+        <v>337.2662729692365</v>
       </c>
       <c r="P43" t="n">
         <v>60.06512077738009</v>
@@ -38095,7 +38095,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
-        <v>271.8465568207345</v>
+        <v>117.0421085312111</v>
       </c>
       <c r="K45" t="n">
         <v>128.6618609232977</v>
@@ -38107,7 +38107,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N45" t="n">
-        <v>446.7623813221047</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O45" t="n">
         <v>214.076785340472</v>
@@ -38116,7 +38116,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248757</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="R45" t="n">
         <v>11.934615907475</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K46" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L46" t="n">
-        <v>344.6244299793377</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N46" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5670915932262</v>
+        <v>356.0012730357673</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
